--- a/Tescik.xlsx
+++ b/Tescik.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jan Cichosz\Desktop\Dane\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jan Cichosz\Desktop\probanr2\Sopot\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89D4E6ED-DB04-4E9D-A7E9-A8FB90BAC681}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE2FE130-CAB3-4BC1-9C3B-6C26758D648F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,12 +25,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
     <t>dupa</t>
   </si>
   <si>
     <t>sdfsfs</t>
+  </si>
+  <si>
+    <t>klops</t>
   </si>
 </sst>
 </file>
@@ -351,7 +354,7 @@
   <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N12" sqref="N8:U12"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -359,6 +362,11 @@
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">

--- a/Tescik.xlsx
+++ b/Tescik.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jan Cichosz\Desktop\probanr2\Sopot\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE2FE130-CAB3-4BC1-9C3B-6C26758D648F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B017111-E36F-4B85-B9A5-C5141C76FD6A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>dupa</t>
   </si>
@@ -34,6 +34,9 @@
   </si>
   <si>
     <t>klops</t>
+  </si>
+  <si>
+    <t>sdf</t>
   </si>
 </sst>
 </file>
@@ -351,10 +354,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -374,6 +377,11 @@
         <v>1</v>
       </c>
     </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Tescik.xlsx
+++ b/Tescik.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jan Cichosz\Desktop\probanr2\Sopot\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B017111-E36F-4B85-B9A5-C5141C76FD6A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32FFA773-DA80-4FB6-B6C4-1BC48BA03133}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>dupa</t>
   </si>
@@ -37,6 +37,9 @@
   </si>
   <si>
     <t>sdf</t>
+  </si>
+  <si>
+    <t>asdas</t>
   </si>
 </sst>
 </file>
@@ -354,30 +357,35 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E13"/>
+  <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="E7" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F10" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
         <v>3</v>
       </c>

--- a/Tescik.xlsx
+++ b/Tescik.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jan Cichosz\Desktop\probanr2\Sopot\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32FFA773-DA80-4FB6-B6C4-1BC48BA03133}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6651955-A36A-4C00-8478-FB8261705F6A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,21 +25,24 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
-  <si>
-    <t>dupa</t>
-  </si>
-  <si>
-    <t>sdfsfs</t>
-  </si>
-  <si>
-    <t>klops</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="6">
   <si>
     <t>sdf</t>
   </si>
   <si>
     <t>asdas</t>
+  </si>
+  <si>
+    <t>af</t>
+  </si>
+  <si>
+    <t>f</t>
+  </si>
+  <si>
+    <t>df</t>
+  </si>
+  <si>
+    <t>sda</t>
   </si>
 </sst>
 </file>
@@ -357,37 +360,45 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F13"/>
+  <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C10" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B5" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="E7" t="s">
+      <c r="F10" t="s">
         <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="F10" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
-        <v>3</v>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E14" t="s">
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/Tescik.xlsx
+++ b/Tescik.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jan Cichosz\Desktop\probanr2\Sopot\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6651955-A36A-4C00-8478-FB8261705F6A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96D7F047-E7A9-43A4-A63E-459103BCFD7C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Arkusz1" sheetId="1" r:id="rId1"/>
+    <sheet name="Arkusz2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>sdf</t>
   </si>
@@ -43,6 +44,15 @@
   </si>
   <si>
     <t>sda</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WIELKI TEST </t>
+  </si>
+  <si>
+    <t>Wielki TEST2</t>
+  </si>
+  <si>
+    <t>sdf - zmieniona wartosc</t>
   </si>
 </sst>
 </file>
@@ -360,45 +370,68 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F14"/>
+  <dimension ref="A1:G14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="M15" sqref="M15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="E4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C10" t="s">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="F10" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="E14" t="s">
         <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3FD420AD-DB93-4A89-987B-2934DA6E081A}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/Tescik.xlsx
+++ b/Tescik.xlsx
@@ -8,13 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jan Cichosz\Desktop\probanr2\Sopot\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96D7F047-E7A9-43A4-A63E-459103BCFD7C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6F8A088-065B-40A6-9C11-728281C0F9F3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Arkusz1" sheetId="1" r:id="rId1"/>
     <sheet name="Arkusz2" sheetId="2" r:id="rId2"/>
+    <sheet name="Arkusz3" sheetId="3" r:id="rId3"/>
+    <sheet name="DUPA" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -26,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>sdf</t>
   </si>
@@ -52,7 +54,13 @@
     <t>Wielki TEST2</t>
   </si>
   <si>
-    <t>sdf - zmieniona wartosc</t>
+    <t>OSKAR</t>
+  </si>
+  <si>
+    <t>LEHMAN</t>
+  </si>
+  <si>
+    <t>qwer</t>
   </si>
 </sst>
 </file>
@@ -372,8 +380,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M15" sqref="M15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -437,4 +445,44 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4FFFB69E-82DD-4231-BA16-4C1A74B3FC65}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I15" sqref="I15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B59DB24-C881-4F71-83E0-67713579D264}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J28" sqref="J28"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Tescik.xlsx
+++ b/Tescik.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jan Cichosz\Desktop\probanr2\Sopot\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6F8A088-065B-40A6-9C11-728281C0F9F3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B91B80AB-EB84-4BD1-A821-2A51A3DB75CA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Arkusz1" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>sdf</t>
   </si>
@@ -61,6 +61,9 @@
   </si>
   <si>
     <t>qwer</t>
+  </si>
+  <si>
+    <t>testujemy dalej</t>
   </si>
 </sst>
 </file>
@@ -380,8 +383,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -404,6 +407,11 @@
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
         <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
@@ -471,8 +479,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B59DB24-C881-4F71-83E0-67713579D264}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J28" sqref="J28"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
